--- a/Coral performance_Predation pressure restoration.xlsx
+++ b/Coral performance_Predation pressure restoration.xlsx
@@ -646,7 +646,7 @@
         <v>-0.00143727058723345</v>
       </c>
       <c r="F10">
-        <v>0.002588382730985237</v>
+        <v>0.002588382730985236</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>-0.01690236195091358</v>
+        <v>-0.01690236195091357</v>
       </c>
       <c r="F11">
         <v>0.001931432510220624</v>
@@ -820,7 +820,7 @@
         <v>-0.00565583113964193</v>
       </c>
       <c r="F16">
-        <v>0.004419294093768031</v>
+        <v>0.00441929409376803</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1133,7 +1133,7 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>0.006547382246111335</v>
+        <v>0.006547382246111334</v>
       </c>
       <c r="F27">
         <v>0.007601476124442202</v>
@@ -1165,7 +1165,7 @@
         <v>0.0002843002616395444</v>
       </c>
       <c r="F28">
-        <v>0.007625532870187067</v>
+        <v>0.007625532870187066</v>
       </c>
       <c r="G28">
         <v>9.199999999999999</v>
@@ -1629,7 +1629,7 @@
         <v>0.006228618424306553</v>
       </c>
       <c r="F44">
-        <v>0.00715436171274019</v>
+        <v>0.007154361712740189</v>
       </c>
       <c r="G44">
         <v>5.2</v>
@@ -2255,7 +2255,7 @@
         <v>-0.005308693698406844</v>
       </c>
       <c r="F66">
-        <v>0.004528810013672171</v>
+        <v>0.00452881001367217</v>
       </c>
       <c r="G66">
         <v>0.8</v>
@@ -2339,7 +2339,7 @@
         <v>80</v>
       </c>
       <c r="E69">
-        <v>0.003814859444690115</v>
+        <v>0.003814859444690114</v>
       </c>
       <c r="F69">
         <v>0.004617218357935004</v>
@@ -2426,13 +2426,13 @@
         <v>20</v>
       </c>
       <c r="E72">
-        <v>-0.05220048146155677</v>
+        <v>-0.05220048146155676</v>
       </c>
       <c r="F72">
-        <v>0.003340507501190354</v>
+        <v>0.003340507501190353</v>
       </c>
       <c r="G72">
-        <v>2.333333333333334</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -3177,7 +3177,7 @@
         <v>100</v>
       </c>
       <c r="E98">
-        <v>-0.002511093550923061</v>
+        <v>-0.00251109355092306</v>
       </c>
       <c r="F98">
         <v>0.007261736440901369</v>
@@ -3293,7 +3293,7 @@
         <v>-0.002645083442792036</v>
       </c>
       <c r="F102">
-        <v>0.008092187006446702</v>
+        <v>0.008092187006446701</v>
       </c>
       <c r="G102">
         <v>0.2</v>
@@ -3432,7 +3432,7 @@
         <v>100</v>
       </c>
       <c r="E107">
-        <v>0.01483428837827107</v>
+        <v>0.01483428837827106</v>
       </c>
       <c r="F107">
         <v>0.006465536107514092</v>
@@ -3545,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="E111">
-        <v>0.001821035368515757</v>
+        <v>0.001821035368515756</v>
       </c>
       <c r="F111">
         <v>0.009073984779826429</v>
@@ -4026,7 +4026,7 @@
         <v>100</v>
       </c>
       <c r="E128">
-        <v>-0.003870110498011367</v>
+        <v>-0.003870110498011366</v>
       </c>
       <c r="F128">
         <v>0.002685571826714854</v>
@@ -4084,7 +4084,7 @@
         <v>0.002747829288574938</v>
       </c>
       <c r="F130">
-        <v>0.002964557035326079</v>
+        <v>0.002964557035326078</v>
       </c>
       <c r="G130">
         <v>0.4</v>
@@ -4252,7 +4252,7 @@
         <v>40</v>
       </c>
       <c r="E136">
-        <v>7.950918266864662e-005</v>
+        <v>7.950918266864662e-05</v>
       </c>
       <c r="F136">
         <v>0.001973674168691252</v>
@@ -4397,7 +4397,7 @@
         <v>100</v>
       </c>
       <c r="E141">
-        <v>-0.008737339127231601</v>
+        <v>-0.0087373391272316</v>
       </c>
       <c r="F141">
         <v>0.00159948790345151</v>
@@ -4513,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="E145">
-        <v>0.009073442914718346</v>
+        <v>0.009073442914718345</v>
       </c>
       <c r="F145">
         <v>0.001549363792663485</v>
@@ -4571,7 +4571,7 @@
         <v>100</v>
       </c>
       <c r="E147">
-        <v>0.000918337367154633</v>
+        <v>0.0009183373671546329</v>
       </c>
       <c r="F147">
         <v>0.005356066953935588</v>
@@ -4806,7 +4806,7 @@
         <v>0.004040112553190886</v>
       </c>
       <c r="F155">
-        <v>0.002159047770207135</v>
+        <v>0.002159047770207134</v>
       </c>
       <c r="G155">
         <v>1.2</v>
@@ -4951,7 +4951,7 @@
         <v>0.00243552952217253</v>
       </c>
       <c r="G160">
-        <v>3.333333333333334</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="161">
@@ -5180,7 +5180,7 @@
         <v>-0.001339328427165965</v>
       </c>
       <c r="F168">
-        <v>0.002555270344416401</v>
+        <v>0.0025552703444164</v>
       </c>
       <c r="G168">
         <v>4.6</v>
@@ -5458,7 +5458,7 @@
         <v>-0.001349163515687912</v>
       </c>
       <c r="F178">
-        <v>0.003307473654437856</v>
+        <v>0.003307473654437855</v>
       </c>
       <c r="G178">
         <v>0.6</v>
@@ -5678,7 +5678,7 @@
         <v>100</v>
       </c>
       <c r="E186">
-        <v>0.0002771903692373008</v>
+        <v>0.0002771903692373007</v>
       </c>
       <c r="F186">
         <v>0.003346327301581127</v>
